--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,184 +531,184 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H2">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I2">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J2">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.155339671494438</v>
+        <v>0.020639</v>
       </c>
       <c r="N2">
-        <v>0.155339671494438</v>
+        <v>0.061917</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.04417978733879519</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.05503146331058021</v>
       </c>
       <c r="Q2">
-        <v>21.41996866196144</v>
+        <v>3.131474393128334</v>
       </c>
       <c r="R2">
-        <v>21.41996866196144</v>
+        <v>28.183269538155</v>
       </c>
       <c r="S2">
-        <v>0.2615920078918041</v>
+        <v>0.0119318094954416</v>
       </c>
       <c r="T2">
-        <v>0.2615920078918041</v>
+        <v>0.01531727313510763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>75.6052636891754</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H3">
-        <v>75.6052636891754</v>
+        <v>455.178215</v>
       </c>
       <c r="I3">
-        <v>0.1434300187149709</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J3">
-        <v>0.1434300187149709</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.155339671494438</v>
+        <v>0.1120823333333333</v>
       </c>
       <c r="N3">
-        <v>0.155339671494438</v>
+        <v>0.336247</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.2399231382868657</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.2988543444254835</v>
       </c>
       <c r="Q3">
-        <v>11.74449682472687</v>
+        <v>17.00581213990056</v>
       </c>
       <c r="R3">
-        <v>11.74449682472687</v>
+        <v>153.052309259105</v>
       </c>
       <c r="S3">
-        <v>0.1434300187149709</v>
+        <v>0.06479698866892372</v>
       </c>
       <c r="T3">
-        <v>0.1434300187149709</v>
+        <v>0.08318211702538129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>113.916721093036</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H4">
-        <v>113.916721093036</v>
+        <v>455.178215</v>
       </c>
       <c r="I4">
-        <v>0.2161103161480222</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J4">
-        <v>0.2161103161480222</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.155339671494438</v>
+        <v>0.05808</v>
       </c>
       <c r="N4">
-        <v>0.155339671494438</v>
+        <v>0.17424</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1243258902387337</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.154863481228669</v>
       </c>
       <c r="Q4">
-        <v>17.69578603231573</v>
+        <v>8.812250242400001</v>
       </c>
       <c r="R4">
-        <v>17.69578603231573</v>
+        <v>79.31025218160001</v>
       </c>
       <c r="S4">
-        <v>0.2161103161480222</v>
+        <v>0.0335771837538276</v>
       </c>
       <c r="T4">
-        <v>0.2161103161480222</v>
+        <v>0.04310418255182184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,114 +720,1044 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>150.902023922951</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H5">
-        <v>150.902023922951</v>
+        <v>455.178215</v>
       </c>
       <c r="I5">
-        <v>0.2862747784913111</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J5">
-        <v>0.2862747784913111</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.155339671494438</v>
+        <v>0.276358</v>
       </c>
       <c r="N5">
-        <v>0.155339671494438</v>
+        <v>0.552716</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.5915711841356054</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.4912507110352674</v>
       </c>
       <c r="Q5">
-        <v>23.44107082403703</v>
+        <v>41.93071371365667</v>
       </c>
       <c r="R5">
-        <v>23.44107082403703</v>
+        <v>251.58428228194</v>
       </c>
       <c r="S5">
-        <v>0.2862747784913111</v>
+        <v>0.1597679639779664</v>
       </c>
       <c r="T5">
-        <v>0.2862747784913111</v>
+        <v>0.1367330771539988</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>82.24887099999999</v>
+      </c>
+      <c r="H6">
+        <v>246.746613</v>
+      </c>
+      <c r="I6">
+        <v>0.146403824289839</v>
+      </c>
+      <c r="J6">
+        <v>0.150882936320401</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.020639</v>
+      </c>
+      <c r="N6">
+        <v>0.061917</v>
+      </c>
+      <c r="O6">
+        <v>0.04417978733879519</v>
+      </c>
+      <c r="P6">
+        <v>0.05503146331058021</v>
+      </c>
+      <c r="Q6">
+        <v>1.697534448569</v>
+      </c>
+      <c r="R6">
+        <v>15.277810037121</v>
+      </c>
+      <c r="S6">
+        <v>0.006468089822711424</v>
+      </c>
+      <c r="T6">
+        <v>0.008303308774308757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>82.24887099999999</v>
+      </c>
+      <c r="H7">
+        <v>246.746613</v>
+      </c>
+      <c r="I7">
+        <v>0.146403824289839</v>
+      </c>
+      <c r="J7">
+        <v>0.150882936320401</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1120823333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.336247</v>
+      </c>
+      <c r="O7">
+        <v>0.2399231382868657</v>
+      </c>
+      <c r="P7">
+        <v>0.2988543444254835</v>
+      </c>
+      <c r="Q7">
+        <v>9.218645375712333</v>
+      </c>
+      <c r="R7">
+        <v>82.967808381411</v>
+      </c>
+      <c r="S7">
+        <v>0.03512566498081703</v>
+      </c>
+      <c r="T7">
+        <v>0.04509202101902542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>82.24887099999999</v>
+      </c>
+      <c r="H8">
+        <v>246.746613</v>
+      </c>
+      <c r="I8">
+        <v>0.146403824289839</v>
+      </c>
+      <c r="J8">
+        <v>0.150882936320401</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05808</v>
+      </c>
+      <c r="N8">
+        <v>0.17424</v>
+      </c>
+      <c r="O8">
+        <v>0.1243258902387337</v>
+      </c>
+      <c r="P8">
+        <v>0.154863481228669</v>
+      </c>
+      <c r="Q8">
+        <v>4.777014427679999</v>
+      </c>
+      <c r="R8">
+        <v>42.99312984912</v>
+      </c>
+      <c r="S8">
+        <v>0.01820178578918937</v>
+      </c>
+      <c r="T8">
+        <v>0.02336625677658087</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>82.24887099999999</v>
+      </c>
+      <c r="H9">
+        <v>246.746613</v>
+      </c>
+      <c r="I9">
+        <v>0.146403824289839</v>
+      </c>
+      <c r="J9">
+        <v>0.150882936320401</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.276358</v>
+      </c>
+      <c r="N9">
+        <v>0.552716</v>
+      </c>
+      <c r="O9">
+        <v>0.5915711841356054</v>
+      </c>
+      <c r="P9">
+        <v>0.4912507110352674</v>
+      </c>
+      <c r="Q9">
+        <v>22.730133491818</v>
+      </c>
+      <c r="R9">
+        <v>136.380800950908</v>
+      </c>
+      <c r="S9">
+        <v>0.08660828369712115</v>
+      </c>
+      <c r="T9">
+        <v>0.07412134975048595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>123.444321</v>
+      </c>
+      <c r="H10">
+        <v>370.332963</v>
+      </c>
+      <c r="I10">
+        <v>0.2197321429647646</v>
+      </c>
+      <c r="J10">
+        <v>0.2264546783208506</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.020639</v>
+      </c>
+      <c r="N10">
+        <v>0.061917</v>
+      </c>
+      <c r="O10">
+        <v>0.04417978733879519</v>
+      </c>
+      <c r="P10">
+        <v>0.05503146331058021</v>
+      </c>
+      <c r="Q10">
+        <v>2.547767341119</v>
+      </c>
+      <c r="R10">
+        <v>22.929906070071</v>
+      </c>
+      <c r="S10">
+        <v>0.009707719347681042</v>
+      </c>
+      <c r="T10">
+        <v>0.01246213232152313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>123.444321</v>
+      </c>
+      <c r="H11">
+        <v>370.332963</v>
+      </c>
+      <c r="I11">
+        <v>0.2197321429647646</v>
+      </c>
+      <c r="J11">
+        <v>0.2264546783208506</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1120823333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.336247</v>
+      </c>
+      <c r="O11">
+        <v>0.2399231382868657</v>
+      </c>
+      <c r="P11">
+        <v>0.2988543444254835</v>
+      </c>
+      <c r="Q11">
+        <v>13.835927534429</v>
+      </c>
+      <c r="R11">
+        <v>124.523347809861</v>
+      </c>
+      <c r="S11">
+        <v>0.05271882532260456</v>
+      </c>
+      <c r="T11">
+        <v>0.06767696443166156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>123.444321</v>
+      </c>
+      <c r="H12">
+        <v>370.332963</v>
+      </c>
+      <c r="I12">
+        <v>0.2197321429647646</v>
+      </c>
+      <c r="J12">
+        <v>0.2264546783208506</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.05808</v>
+      </c>
+      <c r="N12">
+        <v>0.17424</v>
+      </c>
+      <c r="O12">
+        <v>0.1243258902387337</v>
+      </c>
+      <c r="P12">
+        <v>0.154863481228669</v>
+      </c>
+      <c r="Q12">
+        <v>7.16964616368</v>
+      </c>
+      <c r="R12">
+        <v>64.52681547312001</v>
+      </c>
+      <c r="S12">
+        <v>0.02731839428815906</v>
+      </c>
+      <c r="T12">
+        <v>0.03506955982528531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>48.8078372759574</v>
-      </c>
-      <c r="H6">
-        <v>48.8078372759574</v>
-      </c>
-      <c r="I6">
-        <v>0.09259287875389165</v>
-      </c>
-      <c r="J6">
-        <v>0.09259287875389165</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.155339671494438</v>
-      </c>
-      <c r="N6">
-        <v>0.155339671494438</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>7.581793408801208</v>
-      </c>
-      <c r="R6">
-        <v>7.581793408801208</v>
-      </c>
-      <c r="S6">
-        <v>0.09259287875389165</v>
-      </c>
-      <c r="T6">
-        <v>0.09259287875389165</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>123.444321</v>
+      </c>
+      <c r="H13">
+        <v>370.332963</v>
+      </c>
+      <c r="I13">
+        <v>0.2197321429647646</v>
+      </c>
+      <c r="J13">
+        <v>0.2264546783208506</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.276358</v>
+      </c>
+      <c r="N13">
+        <v>0.552716</v>
+      </c>
+      <c r="O13">
+        <v>0.5915711841356054</v>
+      </c>
+      <c r="P13">
+        <v>0.4912507110352674</v>
+      </c>
+      <c r="Q13">
+        <v>34.114825662918</v>
+      </c>
+      <c r="R13">
+        <v>204.688953977508</v>
+      </c>
+      <c r="S13">
+        <v>0.1299872040063199</v>
+      </c>
+      <c r="T13">
+        <v>0.1112460217423806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H14">
+        <v>463.02893</v>
+      </c>
+      <c r="I14">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J14">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.020639</v>
+      </c>
+      <c r="N14">
+        <v>0.061917</v>
+      </c>
+      <c r="O14">
+        <v>0.04417978733879519</v>
+      </c>
+      <c r="P14">
+        <v>0.05503146331058021</v>
+      </c>
+      <c r="Q14">
+        <v>3.185484695423333</v>
+      </c>
+      <c r="R14">
+        <v>28.66936225881</v>
+      </c>
+      <c r="S14">
+        <v>0.01213760413300571</v>
+      </c>
+      <c r="T14">
+        <v>0.01558145877053151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H15">
+        <v>463.02893</v>
+      </c>
+      <c r="I15">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J15">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1120823333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.336247</v>
+      </c>
+      <c r="O15">
+        <v>0.2399231382868657</v>
+      </c>
+      <c r="P15">
+        <v>0.2988543444254835</v>
+      </c>
+      <c r="Q15">
+        <v>17.29912095841222</v>
+      </c>
+      <c r="R15">
+        <v>155.69208862571</v>
+      </c>
+      <c r="S15">
+        <v>0.06591457882182228</v>
+      </c>
+      <c r="T15">
+        <v>0.08461680584031703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H16">
+        <v>463.02893</v>
+      </c>
+      <c r="I16">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J16">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.05808</v>
+      </c>
+      <c r="N16">
+        <v>0.17424</v>
+      </c>
+      <c r="O16">
+        <v>0.1243258902387337</v>
+      </c>
+      <c r="P16">
+        <v>0.154863481228669</v>
+      </c>
+      <c r="Q16">
+        <v>8.9642400848</v>
+      </c>
+      <c r="R16">
+        <v>80.6781607632</v>
+      </c>
+      <c r="S16">
+        <v>0.03415630835045164</v>
+      </c>
+      <c r="T16">
+        <v>0.04384762466168275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H17">
+        <v>463.02893</v>
+      </c>
+      <c r="I17">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J17">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.276358</v>
+      </c>
+      <c r="N17">
+        <v>0.552716</v>
+      </c>
+      <c r="O17">
+        <v>0.5915711841356054</v>
+      </c>
+      <c r="P17">
+        <v>0.4912507110352674</v>
+      </c>
+      <c r="Q17">
+        <v>42.65391634564666</v>
+      </c>
+      <c r="R17">
+        <v>255.92349807388</v>
+      </c>
+      <c r="S17">
+        <v>0.1625235720233147</v>
+      </c>
+      <c r="T17">
+        <v>0.1390913895345882</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>50.0323125</v>
+      </c>
+      <c r="H18">
+        <v>100.064625</v>
+      </c>
+      <c r="I18">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J18">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.020639</v>
+      </c>
+      <c r="N18">
+        <v>0.061917</v>
+      </c>
+      <c r="O18">
+        <v>0.04417978733879519</v>
+      </c>
+      <c r="P18">
+        <v>0.05503146331058021</v>
+      </c>
+      <c r="Q18">
+        <v>1.0326168976875</v>
+      </c>
+      <c r="R18">
+        <v>6.195701386125</v>
+      </c>
+      <c r="S18">
+        <v>0.003934564539955419</v>
+      </c>
+      <c r="T18">
+        <v>0.003367290309109189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>50.0323125</v>
+      </c>
+      <c r="H19">
+        <v>100.064625</v>
+      </c>
+      <c r="I19">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J19">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1120823333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.336247</v>
+      </c>
+      <c r="O19">
+        <v>0.2399231382868657</v>
+      </c>
+      <c r="P19">
+        <v>0.2988543444254835</v>
+      </c>
+      <c r="Q19">
+        <v>5.607738327062501</v>
+      </c>
+      <c r="R19">
+        <v>33.646429962375</v>
+      </c>
+      <c r="S19">
+        <v>0.02136708049269812</v>
+      </c>
+      <c r="T19">
+        <v>0.01828643610909826</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>50.0323125</v>
+      </c>
+      <c r="H20">
+        <v>100.064625</v>
+      </c>
+      <c r="I20">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J20">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.05808</v>
+      </c>
+      <c r="N20">
+        <v>0.17424</v>
+      </c>
+      <c r="O20">
+        <v>0.1243258902387337</v>
+      </c>
+      <c r="P20">
+        <v>0.154863481228669</v>
+      </c>
+      <c r="Q20">
+        <v>2.90587671</v>
+      </c>
+      <c r="R20">
+        <v>17.43526026</v>
+      </c>
+      <c r="S20">
+        <v>0.011072218057106</v>
+      </c>
+      <c r="T20">
+        <v>0.009475857413298207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>50.0323125</v>
+      </c>
+      <c r="H21">
+        <v>100.064625</v>
+      </c>
+      <c r="I21">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J21">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.276358</v>
+      </c>
+      <c r="N21">
+        <v>0.552716</v>
+      </c>
+      <c r="O21">
+        <v>0.5915711841356054</v>
+      </c>
+      <c r="P21">
+        <v>0.4912507110352674</v>
+      </c>
+      <c r="Q21">
+        <v>13.826829817875</v>
+      </c>
+      <c r="R21">
+        <v>55.3073192715</v>
+      </c>
+      <c r="S21">
+        <v>0.05268416043088325</v>
+      </c>
+      <c r="T21">
+        <v>0.03005887285381388</v>
       </c>
     </row>
   </sheetData>
